--- a/Electronic/Components/Electronics-Components-Index.xlsx
+++ b/Electronic/Components/Electronics-Components-Index.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukab\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emile\6DOF-Robotic-Arm\Electronic\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CCC3F9-FB16-41A8-A7FF-2F9C4E181180}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="LISTE" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="413">
   <si>
     <t>Catégorie</t>
   </si>
@@ -1218,12 +1217,60 @@
   </si>
   <si>
     <t>E-0063</t>
+  </si>
+  <si>
+    <t>RT9193-28GB</t>
+  </si>
+  <si>
+    <t>IC REG LINEAR 2.8V 300MA SOT23-5</t>
+  </si>
+  <si>
+    <t>Richtek USA Inc.</t>
+  </si>
+  <si>
+    <t>1028-1072-2-ND</t>
+  </si>
+  <si>
+    <t>CONN HEADER 2POS 2.54MM</t>
+  </si>
+  <si>
+    <t>732-5315-ND</t>
+  </si>
+  <si>
+    <t>732-5317-ND</t>
+  </si>
+  <si>
+    <t>CONN HEADER 4POS 2.54MM</t>
+  </si>
+  <si>
+    <t>GRPB032VWVN-RC</t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 6POS 1.27MM</t>
+  </si>
+  <si>
+    <t>Sullins Connector Solutions</t>
+  </si>
+  <si>
+    <t>S9015E-03-ND</t>
+  </si>
+  <si>
+    <t>CRCW06031K60JNEA</t>
+  </si>
+  <si>
+    <t>RES SMD 1.6K OHM 5% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>Vishay Dale</t>
+  </si>
+  <si>
+    <t>541-1.6KGTR-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
@@ -1302,7 +1349,7 @@
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1357,16 +1404,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Monétaire" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
@@ -1531,28 +1584,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau3" displayName="Tableau3" ref="A5:L94" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A5:L94" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A5:L94" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A5:L94"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Number" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categories" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Type" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Name" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Description" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Manufacturier" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="DÉVELOPPEMENT" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="VERSION" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Fournisseur Digikey" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Price 1" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Fournisseur Bangood" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Price 2" dataDxfId="0"/>
+    <tableColumn id="1" name="Number" dataDxfId="11"/>
+    <tableColumn id="2" name="Categories" dataDxfId="10"/>
+    <tableColumn id="3" name="Type" dataDxfId="9"/>
+    <tableColumn id="4" name="Name" dataDxfId="8"/>
+    <tableColumn id="5" name="Description" dataDxfId="7"/>
+    <tableColumn id="6" name="Manufacturier" dataDxfId="6"/>
+    <tableColumn id="7" name="DÉVELOPPEMENT" dataDxfId="5"/>
+    <tableColumn id="8" name="VERSION" dataDxfId="4"/>
+    <tableColumn id="9" name="Fournisseur Digikey" dataDxfId="3"/>
+    <tableColumn id="12" name="Price 1" dataDxfId="2"/>
+    <tableColumn id="11" name="Fournisseur Bangood" dataDxfId="1"/>
+    <tableColumn id="10" name="Price 2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1627,23 +1680,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1679,23 +1715,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1871,14 +1890,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
@@ -1897,18 +1916,18 @@
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1931,18 +1950,18 @@
       <c r="A3" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
@@ -3244,7 +3263,7 @@
       <c r="H43" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="I43" s="27" t="s">
+      <c r="I43" s="26" t="s">
         <v>325</v>
       </c>
       <c r="J43" s="18">
@@ -3489,17 +3508,31 @@
       <c r="A51" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="6"/>
+      <c r="B51" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>399</v>
+      </c>
       <c r="G51" s="6"/>
       <c r="H51" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="I51" s="6"/>
-      <c r="J51" s="18"/>
+      <c r="I51" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="J51" s="18">
+        <v>0.27</v>
+      </c>
       <c r="K51" s="6"/>
       <c r="L51" s="22"/>
       <c r="M51" s="6"/>
@@ -3508,17 +3541,31 @@
       <c r="A52" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="6"/>
+      <c r="B52" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D52" s="29">
+        <v>61300211121</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>304</v>
+      </c>
       <c r="G52" s="6"/>
       <c r="H52" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="I52" s="6"/>
-      <c r="J52" s="18"/>
+      <c r="I52" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="J52" s="18">
+        <v>0.2</v>
+      </c>
       <c r="K52" s="6"/>
       <c r="L52" s="22"/>
       <c r="M52" s="6"/>
@@ -3527,17 +3574,31 @@
       <c r="A53" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="6"/>
+      <c r="B53" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D53" s="25">
+        <v>61300411121</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>304</v>
+      </c>
       <c r="G53" s="6"/>
       <c r="H53" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="I53" s="6"/>
-      <c r="J53" s="18"/>
+      <c r="I53" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="J53" s="18">
+        <v>0.27</v>
+      </c>
       <c r="K53" s="6"/>
       <c r="L53" s="22"/>
       <c r="M53" s="6"/>
@@ -3546,17 +3607,31 @@
       <c r="A54" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="6"/>
+      <c r="B54" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>407</v>
+      </c>
       <c r="G54" s="6"/>
       <c r="H54" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="I54" s="6"/>
-      <c r="J54" s="18"/>
+      <c r="I54" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="J54" s="18">
+        <v>0.73</v>
+      </c>
       <c r="K54" s="6"/>
       <c r="L54" s="22"/>
       <c r="M54" s="6"/>
@@ -3565,17 +3640,31 @@
       <c r="A55" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="6"/>
+      <c r="B55" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>411</v>
+      </c>
       <c r="G55" s="6"/>
       <c r="H55" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="I55" s="6"/>
-      <c r="J55" s="18"/>
+      <c r="I55" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="J55" s="18">
+        <v>0.16</v>
+      </c>
       <c r="K55" s="6"/>
       <c r="L55" s="22"/>
       <c r="M55" s="6"/>
@@ -4393,103 +4482,113 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95">
       <formula1>"Component, Assemblie, Library"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B94" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B94">
       <formula1>"Component, Assembly, Library"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="K7" r:id="rId5" display="https://www.banggood.com/5Pcs-ESP8266-ESP-12E-Remote-Serial-Port-WIFI-Transceiver-Wireless-Module-p-982886.html?rmmds=search&amp;cur_warehouse=CN" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="H10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="I10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="H11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="I11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="H12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="I12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="H13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="I13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="H14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="I14" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="H15" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="I15" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="H16" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="I16" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="H17" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="I17" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="H18" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="I18" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="H19" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="I19" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="H20" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="I20" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="H21" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="I21" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="H22" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="I22" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="H23" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="I23" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="H24" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="I24" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="K25" r:id="rId36" display="https://www.banggood.com/Hall-Sensor-Brushless-Motor-A3144-A3144E-OH3144E-Capteur-effet-TO-92UA-Interrupteur-3Pin-SIP-p-1007581.html?rmmds=myorder&amp;cur_warehouse=CN" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="H25" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="H26" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="I26" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="H27" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="H28" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="K28" r:id="rId42" display="https://www.banggood.com/5Pcs-STM32F103C8T6-Small-System-Development-Board-Microcontroller-STM32-ARM-Core-Board-p-1163842.html?rmmds=myorder&amp;cur_warehouse=CN" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="H29" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="I29" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="H31" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="I31" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="H30" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="I30" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="H32" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="I32" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="H33" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="I33" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="H34" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="I34" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="H35" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="I35" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="H36" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="I36" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="H37" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="I37" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="H38" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="I38" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="H39" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="I39" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="H40" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="I40" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="H41" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="I41" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="H42" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="I42" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="I25" r:id="rId71" xr:uid="{05454129-D986-471F-9E05-5805058E0EA4}"/>
-    <hyperlink ref="I43" r:id="rId72" xr:uid="{9351640D-C549-4722-A652-A93C32762786}"/>
-    <hyperlink ref="I44" r:id="rId73" xr:uid="{1186CB9F-B1EF-48F8-AA7B-45D9409ABAD2}"/>
-    <hyperlink ref="I45" r:id="rId74" xr:uid="{E00E4A9E-789B-423C-A67B-F40456843AF4}"/>
-    <hyperlink ref="I46" r:id="rId75" xr:uid="{EAE9FBE2-3A0B-44E9-9000-A1FFDD6F371B}"/>
-    <hyperlink ref="I47" r:id="rId76" xr:uid="{ACCC4550-2B0A-422E-934D-8056F2963D56}"/>
-    <hyperlink ref="I48" r:id="rId77" xr:uid="{730E78F7-1492-4C7A-B662-AD61A5B06D5F}"/>
-    <hyperlink ref="I49" r:id="rId78" xr:uid="{79F9FAAA-332F-497E-A535-57C4926F7A9C}"/>
-    <hyperlink ref="I50" r:id="rId79" xr:uid="{A8868D1A-9767-4893-BBB4-00DA5A71F63A}"/>
+    <hyperlink ref="H8" r:id="rId1"/>
+    <hyperlink ref="I8" r:id="rId2"/>
+    <hyperlink ref="H9" r:id="rId3"/>
+    <hyperlink ref="I9" r:id="rId4"/>
+    <hyperlink ref="K7" r:id="rId5" display="https://www.banggood.com/5Pcs-ESP8266-ESP-12E-Remote-Serial-Port-WIFI-Transceiver-Wireless-Module-p-982886.html?rmmds=search&amp;cur_warehouse=CN"/>
+    <hyperlink ref="H10" r:id="rId6"/>
+    <hyperlink ref="I10" r:id="rId7"/>
+    <hyperlink ref="H11" r:id="rId8"/>
+    <hyperlink ref="I11" r:id="rId9"/>
+    <hyperlink ref="H12" r:id="rId10"/>
+    <hyperlink ref="I12" r:id="rId11"/>
+    <hyperlink ref="H13" r:id="rId12"/>
+    <hyperlink ref="I13" r:id="rId13"/>
+    <hyperlink ref="H14" r:id="rId14"/>
+    <hyperlink ref="I14" r:id="rId15"/>
+    <hyperlink ref="H15" r:id="rId16"/>
+    <hyperlink ref="I15" r:id="rId17"/>
+    <hyperlink ref="H16" r:id="rId18"/>
+    <hyperlink ref="I16" r:id="rId19"/>
+    <hyperlink ref="H17" r:id="rId20"/>
+    <hyperlink ref="I17" r:id="rId21"/>
+    <hyperlink ref="H18" r:id="rId22"/>
+    <hyperlink ref="I18" r:id="rId23"/>
+    <hyperlink ref="H19" r:id="rId24"/>
+    <hyperlink ref="I19" r:id="rId25"/>
+    <hyperlink ref="H20" r:id="rId26"/>
+    <hyperlink ref="I20" r:id="rId27"/>
+    <hyperlink ref="H21" r:id="rId28"/>
+    <hyperlink ref="I21" r:id="rId29"/>
+    <hyperlink ref="H22" r:id="rId30"/>
+    <hyperlink ref="I22" r:id="rId31"/>
+    <hyperlink ref="H23" r:id="rId32"/>
+    <hyperlink ref="I23" r:id="rId33"/>
+    <hyperlink ref="H24" r:id="rId34"/>
+    <hyperlink ref="I24" r:id="rId35"/>
+    <hyperlink ref="K25" r:id="rId36" display="https://www.banggood.com/Hall-Sensor-Brushless-Motor-A3144-A3144E-OH3144E-Capteur-effet-TO-92UA-Interrupteur-3Pin-SIP-p-1007581.html?rmmds=myorder&amp;cur_warehouse=CN"/>
+    <hyperlink ref="H25" r:id="rId37"/>
+    <hyperlink ref="H26" r:id="rId38"/>
+    <hyperlink ref="I26" r:id="rId39"/>
+    <hyperlink ref="H27" r:id="rId40"/>
+    <hyperlink ref="H28" r:id="rId41"/>
+    <hyperlink ref="K28" r:id="rId42" display="https://www.banggood.com/5Pcs-STM32F103C8T6-Small-System-Development-Board-Microcontroller-STM32-ARM-Core-Board-p-1163842.html?rmmds=myorder&amp;cur_warehouse=CN"/>
+    <hyperlink ref="H29" r:id="rId43"/>
+    <hyperlink ref="I29" r:id="rId44"/>
+    <hyperlink ref="H31" r:id="rId45"/>
+    <hyperlink ref="I31" r:id="rId46"/>
+    <hyperlink ref="H30" r:id="rId47"/>
+    <hyperlink ref="I30" r:id="rId48"/>
+    <hyperlink ref="H32" r:id="rId49"/>
+    <hyperlink ref="I32" r:id="rId50"/>
+    <hyperlink ref="H33" r:id="rId51"/>
+    <hyperlink ref="I33" r:id="rId52"/>
+    <hyperlink ref="H34" r:id="rId53"/>
+    <hyperlink ref="I34" r:id="rId54"/>
+    <hyperlink ref="H35" r:id="rId55"/>
+    <hyperlink ref="I35" r:id="rId56"/>
+    <hyperlink ref="H36" r:id="rId57"/>
+    <hyperlink ref="I36" r:id="rId58"/>
+    <hyperlink ref="H37" r:id="rId59"/>
+    <hyperlink ref="I37" r:id="rId60"/>
+    <hyperlink ref="H38" r:id="rId61"/>
+    <hyperlink ref="I38" r:id="rId62"/>
+    <hyperlink ref="H39" r:id="rId63"/>
+    <hyperlink ref="I39" r:id="rId64"/>
+    <hyperlink ref="H40" r:id="rId65"/>
+    <hyperlink ref="I40" r:id="rId66"/>
+    <hyperlink ref="H41" r:id="rId67"/>
+    <hyperlink ref="I41" r:id="rId68"/>
+    <hyperlink ref="H42" r:id="rId69"/>
+    <hyperlink ref="I42" r:id="rId70"/>
+    <hyperlink ref="I25" r:id="rId71"/>
+    <hyperlink ref="I43" r:id="rId72"/>
+    <hyperlink ref="I44" r:id="rId73"/>
+    <hyperlink ref="I45" r:id="rId74"/>
+    <hyperlink ref="I46" r:id="rId75"/>
+    <hyperlink ref="I47" r:id="rId76"/>
+    <hyperlink ref="I48" r:id="rId77"/>
+    <hyperlink ref="I49" r:id="rId78"/>
+    <hyperlink ref="I50" r:id="rId79"/>
+    <hyperlink ref="I51" r:id="rId80"/>
+    <hyperlink ref="H51" r:id="rId81"/>
+    <hyperlink ref="H52" r:id="rId82"/>
+    <hyperlink ref="I52" r:id="rId83"/>
+    <hyperlink ref="I53" r:id="rId84"/>
+    <hyperlink ref="H53" r:id="rId85"/>
+    <hyperlink ref="H54" r:id="rId86"/>
+    <hyperlink ref="I54" r:id="rId87"/>
+    <hyperlink ref="H55" r:id="rId88"/>
+    <hyperlink ref="I55" r:id="rId89"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId80"/>
+  <pageSetup orientation="portrait" r:id="rId90"/>
   <tableParts count="1">
-    <tablePart r:id="rId81"/>
+    <tablePart r:id="rId91"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'CATÉGORIES &amp; TYPES'!$A$18:$A$36</xm:f>
           </x14:formula1>
@@ -4502,14 +4601,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:D36"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59.5703125" bestFit="1" customWidth="1"/>
@@ -4747,14 +4846,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="59.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -4793,12 +4892,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100195A0DC3D759E3489DFA9C5205E5B14C" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="50d30e209eacd544e519b0de95956bf8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9557b78e-b540-44eb-8496-d55148e88a38" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="093a042629348530cc8d8a9fb023c1bd" ns2:_="">
     <xsd:import namespace="9557b78e-b540-44eb-8496-d55148e88a38"/>
@@ -4930,6 +5023,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{723C7C72-FB82-4CAD-AEF8-0F96687F8D2E}">
   <ds:schemaRefs>
@@ -4939,22 +5038,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE39B8A0-603B-4CD4-BED2-FB7318812FE6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9557b78e-b540-44eb-8496-d55148e88a38"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD7DD402-3AFE-43B9-82AA-89DC3E0E2BD0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4970,4 +5053,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE39B8A0-603B-4CD4-BED2-FB7318812FE6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9557b78e-b540-44eb-8496-d55148e88a38"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Electronic/Components/Electronics-Components-Index.xlsx
+++ b/Electronic/Components/Electronics-Components-Index.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="423">
   <si>
     <t>Catégorie</t>
   </si>
@@ -763,12 +763,6 @@
     <t>PCB Extension Camera Raspi</t>
   </si>
   <si>
-    <t>BluePill STM32</t>
-  </si>
-  <si>
-    <t>STM32F103C8T6 small Dev board</t>
-  </si>
-  <si>
     <t>VERSION\E-0023</t>
   </si>
   <si>
@@ -1265,6 +1259,42 @@
   </si>
   <si>
     <t>541-1.6KGTR-ND</t>
+  </si>
+  <si>
+    <t>STM32F103C8T6  IC</t>
+  </si>
+  <si>
+    <t>STM32F103</t>
+  </si>
+  <si>
+    <t>497-6063-ND</t>
+  </si>
+  <si>
+    <t>Micro USB connector</t>
+  </si>
+  <si>
+    <t>Red LED 0603 SMD</t>
+  </si>
+  <si>
+    <t>LCD Cape BeagleBone Black</t>
+  </si>
+  <si>
+    <t>LCD Cape + Max485 for BeagleBone Black</t>
+  </si>
+  <si>
+    <t>PCB Drive Motor</t>
+  </si>
+  <si>
+    <t>PCB Drive motor for 6DOF Robotic Arm</t>
+  </si>
+  <si>
+    <t>Emile Renaud / Luka Bouchard</t>
+  </si>
+  <si>
+    <t>Priceless</t>
+  </si>
+  <si>
+    <t>Jumper 2 POS</t>
   </si>
 </sst>
 </file>
@@ -1408,13 +1438,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1893,8 +1923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1916,18 +1946,18 @@
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1950,18 +1980,18 @@
       <c r="A3" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
@@ -2645,20 +2675,20 @@
         <v>233</v>
       </c>
       <c r="D25" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>326</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>328</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="13" t="s">
         <v>236</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J25" s="18">
         <v>1.32</v>
@@ -2746,29 +2776,29 @@
         <v>58</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>5</v>
+        <v>142</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>245</v>
+        <v>412</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>246</v>
+        <v>411</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>235</v>
+        <v>152</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>235</v>
+        <v>245</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>413</v>
       </c>
       <c r="J28" s="18">
-        <v>0</v>
+        <v>8.02</v>
       </c>
       <c r="K28" s="20">
         <v>1163842</v>
@@ -2789,20 +2819,20 @@
         <v>133</v>
       </c>
       <c r="D29" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>248</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>250</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J29" s="18">
         <v>0.16</v>
@@ -2822,20 +2852,20 @@
         <v>133</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="24" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J30" s="18">
         <v>0.16</v>
@@ -2855,20 +2885,20 @@
         <v>133</v>
       </c>
       <c r="D31" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>253</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>255</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J31" s="18">
         <v>0.16</v>
@@ -2888,20 +2918,20 @@
         <v>133</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J32" s="19">
         <v>0.16</v>
@@ -2921,20 +2951,20 @@
         <v>133</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J33" s="18">
         <v>0.16</v>
@@ -2954,20 +2984,20 @@
         <v>133</v>
       </c>
       <c r="D34" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>270</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>272</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J34" s="18">
         <v>0.16</v>
@@ -2987,20 +3017,20 @@
         <v>133</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J35" s="18">
         <v>0.16</v>
@@ -3020,20 +3050,20 @@
         <v>133</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J36" s="18">
         <v>0.16</v>
@@ -3053,20 +3083,20 @@
         <v>133</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J37" s="18">
         <v>0.16</v>
@@ -3086,20 +3116,20 @@
         <v>135</v>
       </c>
       <c r="D38" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>289</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J38" s="18">
         <v>0.15</v>
@@ -3119,20 +3149,20 @@
         <v>135</v>
       </c>
       <c r="D39" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>292</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>294</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J39" s="18">
         <v>0.15</v>
@@ -3152,20 +3182,20 @@
         <v>135</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="24" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J40" s="18">
         <v>0.18</v>
@@ -3185,20 +3215,20 @@
         <v>138</v>
       </c>
       <c r="D41" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>302</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>304</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J41" s="18">
         <v>0.21</v>
@@ -3218,20 +3248,20 @@
         <v>171</v>
       </c>
       <c r="D42" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>306</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>308</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J42" s="18">
         <v>0.76</v>
@@ -3251,20 +3281,20 @@
         <v>138</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G43" s="13"/>
       <c r="H43" s="13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I43" s="26" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J43" s="18">
         <v>0.5</v>
@@ -3284,20 +3314,20 @@
         <v>142</v>
       </c>
       <c r="D44" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>330</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>332</v>
       </c>
       <c r="G44" s="13"/>
       <c r="H44" s="13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J44" s="18">
         <v>5.0999999999999996</v>
@@ -3317,20 +3347,20 @@
         <v>139</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="13" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J45" s="18">
         <v>0.6</v>
@@ -3350,20 +3380,20 @@
         <v>135</v>
       </c>
       <c r="D46" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="F46" s="6" t="s">
         <v>346</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>348</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="13" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="J46" s="18">
         <v>0.15</v>
@@ -3383,20 +3413,20 @@
         <v>135</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J47" s="18">
         <v>0.15</v>
@@ -3416,20 +3446,20 @@
         <v>135</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="13" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J48" s="18">
         <v>0.28999999999999998</v>
@@ -3449,20 +3479,20 @@
         <v>133</v>
       </c>
       <c r="D49" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="F49" s="6" t="s">
         <v>357</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>359</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J49" s="18">
         <v>0.47</v>
@@ -3482,20 +3512,20 @@
         <v>133</v>
       </c>
       <c r="D50" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="F50" s="6" t="s">
         <v>360</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>362</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J50" s="18">
         <v>0.16</v>
@@ -3515,20 +3545,20 @@
         <v>141</v>
       </c>
       <c r="D51" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="F51" s="6" t="s">
         <v>397</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>399</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I51" s="13" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J51" s="18">
         <v>0.27</v>
@@ -3547,21 +3577,21 @@
       <c r="C52" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D52" s="29">
+      <c r="D52" s="27">
         <v>61300211121</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="13" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J52" s="18">
         <v>0.2</v>
@@ -3584,17 +3614,17 @@
         <v>61300411121</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="13" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="J53" s="18">
         <v>0.27</v>
@@ -3614,20 +3644,20 @@
         <v>171</v>
       </c>
       <c r="D54" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="F54" s="6" t="s">
         <v>405</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>407</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="J54" s="18">
         <v>0.73</v>
@@ -3647,20 +3677,20 @@
         <v>133</v>
       </c>
       <c r="D55" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="F55" s="6" t="s">
         <v>409</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>411</v>
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="13" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I55" s="24" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="J55" s="18">
         <v>0.16</v>
@@ -3673,14 +3703,20 @@
       <c r="A56" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
+      <c r="B56" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>171</v>
+      </c>
       <c r="D56" s="6"/>
-      <c r="E56" s="12"/>
+      <c r="E56" s="12" t="s">
+        <v>414</v>
+      </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="13" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I56" s="6"/>
       <c r="J56" s="18"/>
@@ -3692,14 +3728,20 @@
       <c r="A57" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
+      <c r="B57" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="D57" s="6"/>
-      <c r="E57" s="12"/>
+      <c r="E57" s="12" t="s">
+        <v>415</v>
+      </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="13" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="18"/>
@@ -3711,37 +3753,71 @@
       <c r="A58" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="6"/>
+      <c r="B58" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>129</v>
+      </c>
       <c r="G58" s="6"/>
       <c r="H58" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="I58" s="6"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="22"/>
+        <v>334</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="J58" s="18">
+        <v>0</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="L58" s="22">
+        <v>0</v>
+      </c>
       <c r="M58" s="6"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="6"/>
+      <c r="B59" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>420</v>
+      </c>
       <c r="G59" s="6"/>
       <c r="H59" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="I59" s="6"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="6"/>
+        <v>335</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="J59" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>235</v>
+      </c>
       <c r="L59" s="22"/>
       <c r="M59" s="6"/>
     </row>
@@ -3749,14 +3825,20 @@
       <c r="A60" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
+      <c r="B60" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>422</v>
+      </c>
       <c r="E60" s="12"/>
       <c r="F60" s="6"/>
       <c r="G60" s="13"/>
       <c r="H60" s="13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I60" s="6"/>
       <c r="J60" s="18"/>
@@ -3775,7 +3857,7 @@
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I61" s="6"/>
       <c r="J61" s="18"/>
@@ -3794,7 +3876,7 @@
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I62" s="6"/>
       <c r="J62" s="18"/>
@@ -3813,7 +3895,7 @@
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="13" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="18"/>
@@ -3832,7 +3914,7 @@
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="13" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I64" s="6"/>
       <c r="J64" s="18"/>
@@ -3851,7 +3933,7 @@
       <c r="F65" s="6"/>
       <c r="G65" s="13"/>
       <c r="H65" s="13" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="18"/>
@@ -3870,7 +3952,7 @@
       <c r="F66" s="6"/>
       <c r="G66" s="13"/>
       <c r="H66" s="13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="18"/>
@@ -3889,7 +3971,7 @@
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="18"/>
@@ -3899,7 +3981,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -3908,7 +3990,7 @@
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="13" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I68" s="6"/>
       <c r="J68" s="18"/>
@@ -3927,7 +4009,7 @@
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="13" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="18"/>
@@ -3946,7 +4028,7 @@
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="13" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="18"/>
@@ -3965,7 +4047,7 @@
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="13" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="18"/>
@@ -3984,7 +4066,7 @@
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="13" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I72" s="6"/>
       <c r="J72" s="18"/>
@@ -4003,7 +4085,7 @@
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="18"/>
@@ -4022,7 +4104,7 @@
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I74" s="6"/>
       <c r="J74" s="18"/>
@@ -4041,7 +4123,7 @@
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="13" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I75" s="6"/>
       <c r="J75" s="18"/>
@@ -4060,7 +4142,7 @@
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="13" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I76" s="6"/>
       <c r="J76" s="18"/>
@@ -4079,7 +4161,7 @@
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="13" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I77" s="6"/>
       <c r="J77" s="18"/>
@@ -4098,7 +4180,7 @@
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="13" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I78" s="6"/>
       <c r="J78" s="18"/>
@@ -4117,7 +4199,7 @@
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="13" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I79" s="6"/>
       <c r="J79" s="18"/>
@@ -4136,7 +4218,7 @@
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="13" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I80" s="6"/>
       <c r="J80" s="18"/>
@@ -4155,7 +4237,7 @@
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="13" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I81" s="6"/>
       <c r="J81" s="18"/>
@@ -4174,7 +4256,7 @@
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="13" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I82" s="6"/>
       <c r="J82" s="18"/>
@@ -4193,7 +4275,7 @@
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="13" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I83" s="6"/>
       <c r="J83" s="18"/>
@@ -4212,7 +4294,7 @@
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I84" s="6"/>
       <c r="J84" s="18"/>
@@ -4231,7 +4313,7 @@
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="13" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I85" s="6"/>
       <c r="J85" s="18"/>
@@ -4250,7 +4332,7 @@
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="13" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I86" s="6"/>
       <c r="J86" s="18"/>
@@ -4269,7 +4351,7 @@
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="13" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I87" s="6"/>
       <c r="J87" s="18"/>
@@ -4288,7 +4370,7 @@
       <c r="F88" s="6"/>
       <c r="G88" s="13"/>
       <c r="H88" s="13" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I88" s="6"/>
       <c r="J88" s="18"/>
@@ -4307,7 +4389,7 @@
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I89" s="6"/>
       <c r="J89" s="18"/>
@@ -4326,7 +4408,7 @@
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="13" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I90" s="6"/>
       <c r="J90" s="18"/>
@@ -4345,7 +4427,7 @@
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I91" s="6"/>
       <c r="J91" s="18"/>
@@ -4364,7 +4446,7 @@
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="13" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I92" s="6"/>
       <c r="J92" s="18"/>
@@ -4383,7 +4465,7 @@
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="13" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I93" s="6"/>
       <c r="J93" s="18"/>
@@ -4402,7 +4484,7 @@
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="13" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I94" s="6"/>
       <c r="J94" s="18"/>
@@ -4579,11 +4661,12 @@
     <hyperlink ref="I54" r:id="rId87"/>
     <hyperlink ref="H55" r:id="rId88"/>
     <hyperlink ref="I55" r:id="rId89"/>
+    <hyperlink ref="I28" r:id="rId90"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId90"/>
+  <pageSetup orientation="portrait" r:id="rId91"/>
   <tableParts count="1">
-    <tablePart r:id="rId91"/>
+    <tablePart r:id="rId92"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -4892,6 +4975,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100195A0DC3D759E3489DFA9C5205E5B14C" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="50d30e209eacd544e519b0de95956bf8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9557b78e-b540-44eb-8496-d55148e88a38" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="093a042629348530cc8d8a9fb023c1bd" ns2:_="">
     <xsd:import namespace="9557b78e-b540-44eb-8496-d55148e88a38"/>
@@ -5023,12 +5112,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{723C7C72-FB82-4CAD-AEF8-0F96687F8D2E}">
   <ds:schemaRefs>
@@ -5038,6 +5121,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE39B8A0-603B-4CD4-BED2-FB7318812FE6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9557b78e-b540-44eb-8496-d55148e88a38"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD7DD402-3AFE-43B9-82AA-89DC3E0E2BD0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5053,20 +5152,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE39B8A0-603B-4CD4-BED2-FB7318812FE6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9557b78e-b540-44eb-8496-d55148e88a38"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Electronic/Components/Electronics-Components-Index.xlsx
+++ b/Electronic/Components/Electronics-Components-Index.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emile\6DOF-Robotic-Arm\Electronic\Components\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emile\master\Electronic\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="427">
   <si>
     <t>Catégorie</t>
   </si>
@@ -1295,6 +1295,18 @@
   </si>
   <si>
     <t>Jumper 2 POS</t>
+  </si>
+  <si>
+    <t>RC0603JR-070RL</t>
+  </si>
+  <si>
+    <t>RES SMD 0 OHM JUMPER 1/10W 0603</t>
+  </si>
+  <si>
+    <t>311-0.0GRCT-ND</t>
+  </si>
+  <si>
+    <t>Yageo</t>
   </si>
 </sst>
 </file>
@@ -1923,8 +1935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3850,17 +3862,31 @@
       <c r="A61" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="6"/>
+      <c r="B61" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>426</v>
+      </c>
       <c r="G61" s="6"/>
       <c r="H61" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="I61" s="6"/>
-      <c r="J61" s="18"/>
+      <c r="I61" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="J61" s="18">
+        <v>0.16</v>
+      </c>
       <c r="K61" s="6"/>
       <c r="L61" s="22"/>
       <c r="M61" s="6"/>
@@ -4662,11 +4688,12 @@
     <hyperlink ref="H55" r:id="rId88"/>
     <hyperlink ref="I55" r:id="rId89"/>
     <hyperlink ref="I28" r:id="rId90"/>
+    <hyperlink ref="I61" r:id="rId91"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId91"/>
+  <pageSetup orientation="portrait" r:id="rId92"/>
   <tableParts count="1">
-    <tablePart r:id="rId92"/>
+    <tablePart r:id="rId93"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -4975,12 +5002,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100195A0DC3D759E3489DFA9C5205E5B14C" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="50d30e209eacd544e519b0de95956bf8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9557b78e-b540-44eb-8496-d55148e88a38" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="093a042629348530cc8d8a9fb023c1bd" ns2:_="">
     <xsd:import namespace="9557b78e-b540-44eb-8496-d55148e88a38"/>
@@ -5112,6 +5133,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{723C7C72-FB82-4CAD-AEF8-0F96687F8D2E}">
   <ds:schemaRefs>
@@ -5121,22 +5148,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE39B8A0-603B-4CD4-BED2-FB7318812FE6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9557b78e-b540-44eb-8496-d55148e88a38"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD7DD402-3AFE-43B9-82AA-89DC3E0E2BD0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5152,4 +5163,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE39B8A0-603B-4CD4-BED2-FB7318812FE6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9557b78e-b540-44eb-8496-d55148e88a38"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Electronic/Components/Electronics-Components-Index.xlsx
+++ b/Electronic/Components/Electronics-Components-Index.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="426">
   <si>
     <t>Catégorie</t>
   </si>
@@ -1295,6 +1295,15 @@
   </si>
   <si>
     <t>Jumper 2 POS</t>
+  </si>
+  <si>
+    <t>Motor Driver assembly</t>
+  </si>
+  <si>
+    <t>resistor 2.2 ohms</t>
+  </si>
+  <si>
+    <t>16v , 330uF</t>
   </si>
 </sst>
 </file>
@@ -1923,8 +1932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3850,9 +3859,15 @@
       <c r="A61" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
+      <c r="B61" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>423</v>
+      </c>
       <c r="E61" s="12"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
@@ -3869,10 +3884,16 @@
       <c r="A62" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
+      <c r="B62" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="D62" s="6"/>
-      <c r="E62" s="12"/>
+      <c r="E62" s="12" t="s">
+        <v>424</v>
+      </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="13" t="s">
@@ -3888,10 +3909,16 @@
       <c r="A63" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
+      <c r="B63" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="D63" s="6"/>
-      <c r="E63" s="12"/>
+      <c r="E63" s="12" t="s">
+        <v>425</v>
+      </c>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="13" t="s">
@@ -4975,12 +5002,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100195A0DC3D759E3489DFA9C5205E5B14C" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="50d30e209eacd544e519b0de95956bf8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9557b78e-b540-44eb-8496-d55148e88a38" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="093a042629348530cc8d8a9fb023c1bd" ns2:_="">
     <xsd:import namespace="9557b78e-b540-44eb-8496-d55148e88a38"/>
@@ -5112,6 +5133,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{723C7C72-FB82-4CAD-AEF8-0F96687F8D2E}">
   <ds:schemaRefs>
@@ -5121,22 +5148,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE39B8A0-603B-4CD4-BED2-FB7318812FE6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9557b78e-b540-44eb-8496-d55148e88a38"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD7DD402-3AFE-43B9-82AA-89DC3E0E2BD0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5152,4 +5163,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE39B8A0-603B-4CD4-BED2-FB7318812FE6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9557b78e-b540-44eb-8496-d55148e88a38"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Electronic/Components/Electronics-Components-Index.xlsx
+++ b/Electronic/Components/Electronics-Components-Index.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emile\6DOF-Robotic-Arm\Electronic\Components\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SDD Files\Documents\6DOF-Robotic-Arm\Electronic\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1311,8 +1311,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1386,7 +1386,7 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1415,7 +1415,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1424,20 +1424,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1463,7 +1463,7 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1932,8 +1932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4689,11 +4689,12 @@
     <hyperlink ref="H55" r:id="rId88"/>
     <hyperlink ref="I55" r:id="rId89"/>
     <hyperlink ref="I28" r:id="rId90"/>
+    <hyperlink ref="H59" r:id="rId91"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId91"/>
+  <pageSetup orientation="portrait" r:id="rId92"/>
   <tableParts count="1">
-    <tablePart r:id="rId92"/>
+    <tablePart r:id="rId93"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -5002,6 +5003,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100195A0DC3D759E3489DFA9C5205E5B14C" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="50d30e209eacd544e519b0de95956bf8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9557b78e-b540-44eb-8496-d55148e88a38" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="093a042629348530cc8d8a9fb023c1bd" ns2:_="">
     <xsd:import namespace="9557b78e-b540-44eb-8496-d55148e88a38"/>
@@ -5133,12 +5140,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{723C7C72-FB82-4CAD-AEF8-0F96687F8D2E}">
   <ds:schemaRefs>
@@ -5148,6 +5149,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE39B8A0-603B-4CD4-BED2-FB7318812FE6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9557b78e-b540-44eb-8496-d55148e88a38"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD7DD402-3AFE-43B9-82AA-89DC3E0E2BD0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5163,20 +5180,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE39B8A0-603B-4CD4-BED2-FB7318812FE6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9557b78e-b540-44eb-8496-d55148e88a38"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>